--- a/收租明細表.xlsx
+++ b/收租明細表.xlsx
@@ -1,49 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7566BD2-B8E1-9F4F-A1F8-09628A6FA2B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4814C1-B0D5-4089-8A66-FDED0B749AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B6DA7C7F-B832-454B-B1B2-09520CB560A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="收租明細表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>房別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>總房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>繳費日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繳費狀態</t>
+  </si>
+  <si>
+    <t>繳費日期1</t>
+  </si>
+  <si>
+    <t>繳費日期2</t>
+  </si>
+  <si>
+    <t>繳費日期3</t>
+  </si>
+  <si>
+    <t>繳費日期4</t>
+  </si>
+  <si>
+    <t>繳費日期5</t>
+  </si>
+  <si>
+    <t>費用1</t>
+  </si>
+  <si>
+    <t>費用2</t>
+  </si>
+  <si>
+    <t>費用3</t>
+  </si>
+  <si>
+    <t>費用4</t>
+  </si>
+  <si>
+    <t>費用5</t>
+  </si>
+  <si>
+    <t>53-101</t>
+  </si>
+  <si>
+    <t>未計算</t>
+  </si>
+  <si>
+    <t>未繳</t>
+  </si>
+  <si>
+    <t>53-102</t>
+  </si>
+  <si>
+    <t>已繳</t>
+  </si>
+  <si>
+    <t>53-103</t>
+  </si>
+  <si>
+    <t>53-201</t>
+  </si>
+  <si>
+    <t>53-202</t>
+  </si>
+  <si>
+    <t>53-203</t>
+  </si>
+  <si>
+    <t>53-301</t>
+  </si>
+  <si>
+    <t>53-302</t>
+  </si>
+  <si>
+    <t>53-303</t>
+  </si>
+  <si>
+    <t>53-401</t>
+  </si>
+  <si>
+    <t>53-402</t>
+  </si>
+  <si>
+    <t>53-403</t>
+  </si>
+  <si>
+    <t>53-501</t>
+  </si>
+  <si>
+    <t>中興路5-1</t>
+  </si>
+  <si>
+    <t>中興路5-2</t>
+  </si>
+  <si>
+    <t>中興路5-3</t>
+  </si>
+  <si>
+    <t>中興路6-1</t>
+  </si>
+  <si>
+    <t>中興路6-2</t>
+  </si>
+  <si>
+    <t>中興路6-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,7 +144,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -62,21 +180,303 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -85,23 +485,238 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -109,12 +724,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,31 +1081,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC88F6D-2E26-6D45-8DC1-B0087A2F3F7E}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="3" width="14.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44197</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44170</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44175</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44188</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/收租明細表.xlsx
+++ b/收租明細表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4814C1-B0D5-4089-8A66-FDED0B749AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82482FBC-9AF1-4A32-9901-EEE86982924A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
@@ -1160,19 +1160,34 @@
         <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>44197</v>
+        <v>44190</v>
       </c>
       <c r="F3" s="1">
-        <v>44170</v>
+        <v>44190</v>
       </c>
       <c r="G3" s="1">
-        <v>44175</v>
+        <v>44190</v>
       </c>
       <c r="H3" s="1">
-        <v>44188</v>
+        <v>44190</v>
       </c>
       <c r="I3" s="1">
         <v>44190</v>
+      </c>
+      <c r="J3">
+        <v>8710</v>
+      </c>
+      <c r="K3">
+        <v>8710</v>
+      </c>
+      <c r="L3">
+        <v>8710</v>
+      </c>
+      <c r="M3">
+        <v>8710</v>
+      </c>
+      <c r="N3">
+        <v>8710</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">

--- a/收租明細表.xlsx
+++ b/收租明細表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/github_final/Rent-Management-Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82482FBC-9AF1-4A32-9901-EEE86982924A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1603F2-45E9-0F42-B5BB-0874D81D8E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="1720" yWindow="7960" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="收租明細表" sheetId="1" r:id="rId1"/>
@@ -133,8 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1081,14 +1081,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="9" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>8710</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1288,7 +1293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1358,7 +1363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1386,7 +1391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1414,7 +1419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>18</v>
       </c>

--- a/收租明細表.xlsx
+++ b/收租明細表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/github_final/Rent-Management-Interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1603F2-45E9-0F42-B5BB-0874D81D8E73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B76C1F-84B1-9241-9732-28AE3D03AACA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="7960" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="6980" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="收租明細表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -112,29 +112,50 @@
     <t>53-501</t>
   </si>
   <si>
+    <t>中興路5-2</t>
+  </si>
+  <si>
+    <t>中興路5-3</t>
+  </si>
+  <si>
+    <t>中興路6-1</t>
+  </si>
+  <si>
+    <t>中興路6-2</t>
+  </si>
+  <si>
+    <t>中興路6-3</t>
+  </si>
+  <si>
     <t>中興路5-1</t>
-  </si>
-  <si>
-    <t>中興路5-2</t>
-  </si>
-  <si>
-    <t>中興路5-3</t>
-  </si>
-  <si>
-    <t>中興路6-1</t>
-  </si>
-  <si>
-    <t>中興路6-2</t>
-  </si>
-  <si>
-    <t>中興路6-3</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍新新村95-3F</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍新新村95-2F</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍新新村95-1F</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>中興路150弄6號5樓</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>中興路150弄6號6樓601室</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +312,13 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -720,13 +748,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1082,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1353,8 +1382,8 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -1367,8 +1396,8 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -1381,8 +1410,8 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>32</v>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -1395,8 +1424,8 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -1409,8 +1438,8 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1423,13 +1452,83 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
         <v>16</v>
       </c>
     </row>
